--- a/ch.xlsx
+++ b/ch.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\Documents\Doutorado\opf_ca\Recof\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4F0A4DA6-E73B-4B9F-8867-6D05F2D11BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1D0855-2568-49BE-9924-0CE8FD65817C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22830" yWindow="2340" windowWidth="28800" windowHeight="15345" xr2:uid="{74CE3828-DABE-4FAE-ACA7-41506A0A5CEF}"/>
   </bookViews>
@@ -57,6 +57,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -86,8 +89,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BEADB06-ACCA-4614-94AB-8F97FCF07BEC}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -428,618 +433,619 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>6.3699999999999998E-4</v>
       </c>
-      <c r="D2">
-        <v>525</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1">
+        <v>525</v>
+      </c>
+      <c r="E2" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>30</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>31</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>7.2400000000000003E-4</v>
       </c>
-      <c r="D3">
-        <v>525</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="1">
+        <v>525</v>
+      </c>
+      <c r="E3" s="1">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>52</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>53</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>6.0499999999999996E-4</v>
       </c>
-      <c r="D4">
-        <v>525</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="1">
+        <v>525</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>63</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>64</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>4.0299999999999998E-4</v>
       </c>
-      <c r="D5">
-        <v>525</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="1">
+        <v>525</v>
+      </c>
+      <c r="E5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>67</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>68</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>2.1050000000000001E-3</v>
       </c>
-      <c r="D6">
-        <v>525</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="1">
+        <v>525</v>
+      </c>
+      <c r="E6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>68</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>69</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1.08E-3</v>
       </c>
-      <c r="D7">
-        <v>525</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="1">
+        <v>525</v>
+      </c>
+      <c r="E7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>89</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>90</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>5.4500000000000002E-4</v>
       </c>
-      <c r="D8">
-        <v>525</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="1">
+        <v>525</v>
+      </c>
+      <c r="E8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>107</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>108</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="D9">
-        <v>525</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="1">
+        <v>525</v>
+      </c>
+      <c r="E9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>118</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>119</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>4.8000000000000001E-4</v>
       </c>
-      <c r="D10">
-        <v>525</v>
-      </c>
-      <c r="E10">
+      <c r="D10" s="1">
+        <v>525</v>
+      </c>
+      <c r="E10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>129</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>130</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>6.1399999999999996E-4</v>
       </c>
-      <c r="D11">
-        <v>525</v>
-      </c>
-      <c r="E11">
+      <c r="D11" s="1">
+        <v>525</v>
+      </c>
+      <c r="E11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>154</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>155</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>5.7399999999999997E-4</v>
       </c>
-      <c r="D12">
-        <v>525</v>
-      </c>
-      <c r="E12">
+      <c r="D12" s="1">
+        <v>525</v>
+      </c>
+      <c r="E12" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>160</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>161</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>5.7799999999999995E-4</v>
       </c>
-      <c r="D13">
-        <v>525</v>
-      </c>
-      <c r="E13">
+      <c r="D13" s="1">
+        <v>525</v>
+      </c>
+      <c r="E13" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>194</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>195</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>5.6599999999999999E-4</v>
       </c>
-      <c r="D14">
-        <v>525</v>
-      </c>
-      <c r="E14">
+      <c r="D14" s="1">
+        <v>525</v>
+      </c>
+      <c r="E14" s="1">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>213</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="1">
         <v>214</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>2.4780000000000002E-3</v>
       </c>
-      <c r="D15">
-        <v>525</v>
-      </c>
-      <c r="E15">
+      <c r="D15" s="1">
+        <v>525</v>
+      </c>
+      <c r="E15" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>214</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>215</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>1.0399999999999999E-3</v>
       </c>
-      <c r="D16">
-        <v>525</v>
-      </c>
-      <c r="E16">
+      <c r="D16" s="1">
+        <v>525</v>
+      </c>
+      <c r="E16" s="1">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>220</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>221</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>7.5299999999999998E-4</v>
       </c>
-      <c r="D17">
-        <v>525</v>
-      </c>
-      <c r="E17">
+      <c r="D17" s="1">
+        <v>525</v>
+      </c>
+      <c r="E17" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>230</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>231</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>5.6099999999999998E-4</v>
       </c>
-      <c r="D18">
-        <v>525</v>
-      </c>
-      <c r="E18">
+      <c r="D18" s="1">
+        <v>525</v>
+      </c>
+      <c r="E18" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>254</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>255</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>7.2900000000000005E-4</v>
       </c>
-      <c r="D19">
-        <v>525</v>
-      </c>
-      <c r="E19">
+      <c r="D19" s="1">
+        <v>525</v>
+      </c>
+      <c r="E19" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>260</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>261</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>6.2399999999999999E-4</v>
       </c>
-      <c r="D20">
-        <v>525</v>
-      </c>
-      <c r="E20">
+      <c r="D20" s="1">
+        <v>525</v>
+      </c>
+      <c r="E20" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>285</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>286</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>5.6300000000000002E-4</v>
       </c>
-      <c r="D21">
-        <v>525</v>
-      </c>
-      <c r="E21">
+      <c r="D21" s="1">
+        <v>525</v>
+      </c>
+      <c r="E21" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>293</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>294</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>5.7200000000000003E-4</v>
       </c>
-      <c r="D22">
-        <v>525</v>
-      </c>
-      <c r="E22">
+      <c r="D22" s="1">
+        <v>525</v>
+      </c>
+      <c r="E22" s="1">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>299</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>300</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>6.3299999999999999E-4</v>
       </c>
-      <c r="D23">
-        <v>525</v>
-      </c>
-      <c r="E23">
+      <c r="D23" s="1">
+        <v>525</v>
+      </c>
+      <c r="E23" s="1">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>305</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>306</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>6.02E-4</v>
       </c>
-      <c r="D24">
-        <v>525</v>
-      </c>
-      <c r="E24">
+      <c r="D24" s="1">
+        <v>525</v>
+      </c>
+      <c r="E24" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>263</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>337</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>4.0499999999999998E-4</v>
       </c>
-      <c r="D25">
-        <v>525</v>
-      </c>
-      <c r="E25">
+      <c r="D25" s="1">
+        <v>525</v>
+      </c>
+      <c r="E25" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>360</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>361</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>8.1800000000000004E-4</v>
       </c>
-      <c r="D26">
-        <v>525</v>
-      </c>
-      <c r="E26">
+      <c r="D26" s="1">
+        <v>525</v>
+      </c>
+      <c r="E26" s="1">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>365</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="1">
         <v>366</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>4.9100000000000001E-4</v>
       </c>
-      <c r="D27">
-        <v>525</v>
-      </c>
-      <c r="E27">
+      <c r="D27" s="1">
+        <v>525</v>
+      </c>
+      <c r="E27" s="1">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>373</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="1">
         <v>374</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>1.279E-3</v>
       </c>
-      <c r="D28">
-        <v>525</v>
-      </c>
-      <c r="E28">
+      <c r="D28" s="1">
+        <v>525</v>
+      </c>
+      <c r="E28" s="1">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>399</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="1">
         <v>400</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>5.1400000000000003E-4</v>
       </c>
-      <c r="D29">
-        <v>525</v>
-      </c>
-      <c r="E29">
+      <c r="D29" s="1">
+        <v>525</v>
+      </c>
+      <c r="E29" s="1">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>412</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="1">
         <v>413</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>5.3600000000000002E-4</v>
       </c>
-      <c r="D30">
-        <v>525</v>
-      </c>
-      <c r="E30">
+      <c r="D30" s="1">
+        <v>525</v>
+      </c>
+      <c r="E30" s="1">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>491</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="1">
         <v>492</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>4.8999999999999998E-4</v>
       </c>
-      <c r="D31">
-        <v>525</v>
-      </c>
-      <c r="E31">
+      <c r="D31" s="1">
+        <v>525</v>
+      </c>
+      <c r="E31" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>87</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
         <v>99</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>1.5424999999999999E-2</v>
       </c>
-      <c r="D32">
-        <v>525</v>
-      </c>
-      <c r="E32">
+      <c r="D32" s="1">
+        <v>525</v>
+      </c>
+      <c r="E32" s="1">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>126</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="1">
         <v>167</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>8.9619999999999995E-3</v>
       </c>
-      <c r="D33">
-        <v>525</v>
-      </c>
-      <c r="E33">
+      <c r="D33" s="1">
+        <v>525</v>
+      </c>
+      <c r="E33" s="1">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>139</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="1">
         <v>186</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>1.7534999999999999E-2</v>
       </c>
-      <c r="D34">
-        <v>525</v>
-      </c>
-      <c r="E34">
+      <c r="D34" s="1">
+        <v>525</v>
+      </c>
+      <c r="E34" s="1">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>148</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="1">
         <v>415</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>1.2455000000000001E-2</v>
       </c>
-      <c r="D35">
-        <v>525</v>
-      </c>
-      <c r="E35">
+      <c r="D35" s="1">
+        <v>525</v>
+      </c>
+      <c r="E35" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>289</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="1">
         <v>335</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>3.2663999999999999E-2</v>
       </c>
-      <c r="D36">
-        <v>525</v>
-      </c>
-      <c r="E36">
+      <c r="D36" s="1">
+        <v>525</v>
+      </c>
+      <c r="E36" s="1">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>485</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="1">
         <v>487</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>1.1211E-2</v>
       </c>
-      <c r="D37">
-        <v>525</v>
-      </c>
-      <c r="E37">
+      <c r="D37" s="1">
+        <v>525</v>
+      </c>
+      <c r="E37" s="1">
         <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>